--- a/Dados.xlsx
+++ b/Dados.xlsx
@@ -3,7 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="Página1" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="dados" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="média  desvio padrão" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -11,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="39">
   <si>
     <t>Listar Atividades</t>
   </si>
@@ -45,12 +46,96 @@
   <si>
     <t>Tempo de renderização</t>
   </si>
+  <si>
+    <t>200,433 ± 3,23555</t>
+  </si>
+  <si>
+    <t>201,533 ± 4,5116</t>
+  </si>
+  <si>
+    <t>201,767 ± 2,93314</t>
+  </si>
+  <si>
+    <t>199,633 ± 3,28978</t>
+  </si>
+  <si>
+    <t>204,7 ± 0,29663</t>
+  </si>
+  <si>
+    <t>204,867 ± 0,2348</t>
+  </si>
+  <si>
+    <t>204,633 ± 0,3175</t>
+  </si>
+  <si>
+    <t>196,7 ± 3,97378</t>
+  </si>
+  <si>
+    <t>204,5 ± 0,18989</t>
+  </si>
+  <si>
+    <t>204,567 ± 0,1882</t>
+  </si>
+  <si>
+    <t>204,267 ± 0,2178</t>
+  </si>
+  <si>
+    <t>204,133 ± 0,32127</t>
+  </si>
+  <si>
+    <t>204,433 ± 6,50811</t>
+  </si>
+  <si>
+    <t>204,6 ± 8,86443</t>
+  </si>
+  <si>
+    <t>202,6 ± 4,2196</t>
+  </si>
+  <si>
+    <t>196,433 ± 4,23902</t>
+  </si>
+  <si>
+    <t>24,78 ± 0,18539</t>
+  </si>
+  <si>
+    <t>24,7333 ± 0,34045</t>
+  </si>
+  <si>
+    <t>59,1267 ± 0,59008</t>
+  </si>
+  <si>
+    <t>58,3467 ± 0,32207</t>
+  </si>
+  <si>
+    <t>136,667 ± 4,98508</t>
+  </si>
+  <si>
+    <t>114,2 ± 3,99941</t>
+  </si>
+  <si>
+    <t>112,333 ± 2,36434</t>
+  </si>
+  <si>
+    <t>104,733 ± 7,32835</t>
+  </si>
+  <si>
+    <t>107,5 ± 1,99224</t>
+  </si>
+  <si>
+    <t>93,9 ± 5,31466</t>
+  </si>
+  <si>
+    <t>98,0667 ± 4,00606</t>
+  </si>
+  <si>
+    <t>92,6333 ± 4,02587</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -67,6 +152,10 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -76,7 +165,7 @@
       <patternFill patternType="lightGray"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border/>
     <border>
       <left style="thin">
@@ -145,11 +234,25 @@
         <color rgb="FF000000"/>
       </bottom>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="23">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -193,6 +296,24 @@
     <xf borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
+    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -202,6 +323,10 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -3985,10 +4110,10 @@
       <c r="B66" s="6"/>
       <c r="C66" s="6"/>
       <c r="D66" s="6"/>
-      <c r="E66" s="12"/>
-      <c r="F66" s="12"/>
-      <c r="G66" s="12"/>
-      <c r="H66" s="12"/>
+      <c r="E66" s="6"/>
+      <c r="F66" s="6"/>
+      <c r="G66" s="6"/>
+      <c r="H66" s="6"/>
       <c r="I66" s="6"/>
       <c r="J66" s="6"/>
       <c r="K66" s="6"/>
@@ -29824,62 +29949,6 @@
       <c r="Y988" s="6"/>
       <c r="Z988" s="6"/>
     </row>
-    <row r="989">
-      <c r="A989" s="6"/>
-      <c r="B989" s="6"/>
-      <c r="C989" s="6"/>
-      <c r="D989" s="6"/>
-      <c r="E989" s="6"/>
-      <c r="F989" s="6"/>
-      <c r="G989" s="6"/>
-      <c r="H989" s="6"/>
-      <c r="I989" s="6"/>
-      <c r="J989" s="6"/>
-      <c r="K989" s="6"/>
-      <c r="L989" s="6"/>
-      <c r="M989" s="6"/>
-      <c r="N989" s="6"/>
-      <c r="O989" s="6"/>
-      <c r="P989" s="6"/>
-      <c r="Q989" s="6"/>
-      <c r="R989" s="6"/>
-      <c r="S989" s="6"/>
-      <c r="T989" s="6"/>
-      <c r="U989" s="6"/>
-      <c r="V989" s="6"/>
-      <c r="W989" s="6"/>
-      <c r="X989" s="6"/>
-      <c r="Y989" s="6"/>
-      <c r="Z989" s="6"/>
-    </row>
-    <row r="990">
-      <c r="A990" s="6"/>
-      <c r="B990" s="6"/>
-      <c r="C990" s="6"/>
-      <c r="D990" s="6"/>
-      <c r="E990" s="6"/>
-      <c r="F990" s="6"/>
-      <c r="G990" s="6"/>
-      <c r="H990" s="6"/>
-      <c r="I990" s="6"/>
-      <c r="J990" s="6"/>
-      <c r="K990" s="6"/>
-      <c r="L990" s="6"/>
-      <c r="M990" s="6"/>
-      <c r="N990" s="6"/>
-      <c r="O990" s="6"/>
-      <c r="P990" s="6"/>
-      <c r="Q990" s="6"/>
-      <c r="R990" s="6"/>
-      <c r="S990" s="6"/>
-      <c r="T990" s="6"/>
-      <c r="U990" s="6"/>
-      <c r="V990" s="6"/>
-      <c r="W990" s="6"/>
-      <c r="X990" s="6"/>
-      <c r="Y990" s="6"/>
-      <c r="Z990" s="6"/>
-    </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A1:D1"/>
@@ -29895,4 +29964,225 @@
   <pageSetup fitToHeight="0" paperSize="9" cellComments="atEnd" orientation="landscape" pageOrder="overThenDown"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="12"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="22"/>
+      <c r="S4" s="21"/>
+      <c r="T4" s="22"/>
+      <c r="U4" s="22"/>
+      <c r="V4" s="22"/>
+      <c r="W4" s="22"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" s="20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" s="20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+  </mergeCells>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Dados.xlsx
+++ b/Dados.xlsx
@@ -29975,6 +29975,9 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="5" max="8" width="14.88"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="12"/>
